--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.35426266666666</v>
+        <v>1.854221333333333</v>
       </c>
       <c r="H2">
-        <v>109.062788</v>
+        <v>5.562664</v>
       </c>
       <c r="I2">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="J2">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N2">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O2">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P2">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q2">
-        <v>1923.515077271096</v>
+        <v>228.5895970015031</v>
       </c>
       <c r="R2">
-        <v>17311.63569543987</v>
+        <v>2057.306373013528</v>
       </c>
       <c r="S2">
-        <v>0.1704036534764422</v>
+        <v>0.02132123296958186</v>
       </c>
       <c r="T2">
-        <v>0.1704036534764422</v>
+        <v>0.02132123296958185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.35426266666666</v>
+        <v>1.854221333333333</v>
       </c>
       <c r="H3">
-        <v>109.062788</v>
+        <v>5.562664</v>
       </c>
       <c r="I3">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="J3">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>141.780175</v>
       </c>
       <c r="O3">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P3">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q3">
-        <v>1718.104574291988</v>
+        <v>87.63060837624442</v>
       </c>
       <c r="R3">
-        <v>15462.9411686279</v>
+        <v>788.6754753861999</v>
       </c>
       <c r="S3">
-        <v>0.1522063954545648</v>
+        <v>0.008173568005563321</v>
       </c>
       <c r="T3">
-        <v>0.1522063954545648</v>
+        <v>0.00817356800556332</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.35426266666666</v>
+        <v>1.854221333333333</v>
       </c>
       <c r="H4">
-        <v>109.062788</v>
+        <v>5.562664</v>
       </c>
       <c r="I4">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="J4">
-        <v>0.4094848412143908</v>
+        <v>0.03416002559055492</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>80.923822</v>
       </c>
       <c r="O4">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P4">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q4">
-        <v>980.6419603261928</v>
+        <v>50.01689237575645</v>
       </c>
       <c r="R4">
-        <v>8825.777642935736</v>
+        <v>450.152031381808</v>
       </c>
       <c r="S4">
-        <v>0.08687479228338386</v>
+        <v>0.004665224615409745</v>
       </c>
       <c r="T4">
-        <v>0.08687479228338386</v>
+        <v>0.004665224615409744</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>135.346352</v>
       </c>
       <c r="I5">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="J5">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N5">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O5">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P5">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q5">
-        <v>2387.072194831853</v>
+        <v>5561.861737344479</v>
       </c>
       <c r="R5">
-        <v>21483.64975348668</v>
+        <v>50056.75563610032</v>
       </c>
       <c r="S5">
-        <v>0.2114700466442191</v>
+        <v>0.5187714200561155</v>
       </c>
       <c r="T5">
-        <v>0.2114700466442191</v>
+        <v>0.5187714200561154</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>135.346352</v>
       </c>
       <c r="I6">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="J6">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>141.780175</v>
       </c>
       <c r="O6">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P6">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q6">
         <v>2132.158830241289</v>
@@ -818,10 +818,10 @@
         <v>19189.4294721716</v>
       </c>
       <c r="S6">
-        <v>0.1888873441952055</v>
+        <v>0.1988728084919225</v>
       </c>
       <c r="T6">
-        <v>0.1888873441952055</v>
+        <v>0.1988728084919224</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>135.346352</v>
       </c>
       <c r="I7">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="J7">
-        <v>0.5081685556916724</v>
+        <v>0.8311547934421808</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>80.923822</v>
       </c>
       <c r="O7">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P7">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q7">
         <v>1216.971566399705</v>
@@ -880,10 +880,10 @@
         <v>10952.74409759735</v>
       </c>
       <c r="S7">
-        <v>0.1078111648522478</v>
+        <v>0.1135105648941428</v>
       </c>
       <c r="T7">
-        <v>0.1078111648522478</v>
+        <v>0.1135105648941428</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>21.932314</v>
       </c>
       <c r="I8">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="J8">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N8">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O8">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P8">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q8">
-        <v>386.8151312842281</v>
+        <v>901.276585925453</v>
       </c>
       <c r="R8">
-        <v>3481.336181558053</v>
+        <v>8111.489273329077</v>
       </c>
       <c r="S8">
-        <v>0.03426784243579507</v>
+        <v>0.0840647532110553</v>
       </c>
       <c r="T8">
-        <v>0.03426784243579507</v>
+        <v>0.08406475321105529</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>21.932314</v>
       </c>
       <c r="I9">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="J9">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>141.780175</v>
       </c>
       <c r="O9">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P9">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q9">
         <v>345.5074796749943</v>
@@ -1004,10 +1004,10 @@
         <v>3109.567317074949</v>
       </c>
       <c r="S9">
-        <v>0.0306084093313082</v>
+        <v>0.03222651233264646</v>
       </c>
       <c r="T9">
-        <v>0.0306084093313082</v>
+        <v>0.03222651233264646</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>21.932314</v>
       </c>
       <c r="I10">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="J10">
-        <v>0.08234660309393668</v>
+        <v>0.1346851809672642</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>80.923822</v>
       </c>
       <c r="O10">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P10">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q10">
         <v>197.2051860204564</v>
@@ -1066,10 +1066,10 @@
         <v>1774.846674184108</v>
       </c>
       <c r="S10">
-        <v>0.01747035132683342</v>
+        <v>0.01839391542356248</v>
       </c>
       <c r="T10">
-        <v>0.01747035132683342</v>
+        <v>0.01839391542356247</v>
       </c>
     </row>
   </sheetData>
